--- a/target/test-classes/Data_Sheet.xlsx
+++ b/target/test-classes/Data_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -461,20 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
